--- a/wcsm8seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsm8seleniumproject/data/ActiTimeTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>USERNAME</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -581,27 +584,27 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
-        <v>9850</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
